--- a/testCase/sqsrmyyadmin/insertDepartmentsCategory.xlsx
+++ b/testCase/sqsrmyyadmin/insertDepartmentsCategory.xlsx
@@ -35,15 +35,15 @@
     <t>categoryName</t>
   </si>
   <si>
-    <t>一级科室</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>新增一级科室成功</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>categoryCode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿博一级科室</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -983,7 +983,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1010,21 +1010,21 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>123456</v>

--- a/testCase/sqsrmyyadmin/insertDepartmentsCategory.xlsx
+++ b/testCase/sqsrmyyadmin/insertDepartmentsCategory.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="insertDepartmentsCategory" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -983,7 +983,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
